--- a/diengiai.xlsx
+++ b/diengiai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/DanaLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C82ED27-97C5-504F-8773-EFB5CC2C2793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0AF866-2FD6-3444-A2F5-4A527308F993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Diễn giải 1</t>
-  </si>
-  <si>
     <t>Kho CFS</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Cảng Tiên Sa</t>
+  </si>
+  <si>
+    <t>Diễn Giải</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
